--- a/source/admin/Menu_2.xlsx
+++ b/source/admin/Menu_2.xlsx
@@ -1,159 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
-  <si>
-    <t>Меню</t>
-  </si>
-  <si>
-    <t>Основное меню</t>
-  </si>
-  <si>
-    <t>Холодные закуски</t>
-  </si>
-  <si>
-    <t>К пиву</t>
-  </si>
-  <si>
-    <t>Сельдь Бисмарк</t>
-  </si>
-  <si>
-    <t>Традиционное немецкое блюдо из маринованной сельди</t>
-  </si>
-  <si>
-    <t>Мясная тарелка</t>
-  </si>
-  <si>
-    <t>Нарезка из ветчины, колбасных колечек, нескольких сортов сыра и фруктов</t>
-  </si>
-  <si>
-    <t>Рыбная тарелка</t>
-  </si>
-  <si>
-    <t>Нарезка из креветок, кальмаров, раковых шеек, гребешков, лосося, скумбрии и красной икры</t>
-  </si>
-  <si>
-    <t>Рамен</t>
-  </si>
-  <si>
-    <t>Горячий рамен</t>
-  </si>
-  <si>
-    <t>Дайзу рамен</t>
-  </si>
-  <si>
-    <t>Рамен на курином бульоне с куриными подушками и яйцом аджитама, яично-пшеничной лапшой, ростки зелени, грибами муэр и зеленым луком</t>
-  </si>
-  <si>
-    <t>Унаги рамен</t>
-  </si>
-  <si>
-    <t>Рамен на нежном сливочном рыбном бульоне, с добавлением маринованного угря, грибов муэр, кунжута, зеленого лука</t>
-  </si>
-  <si>
-    <t>Чиизу Рамен</t>
-  </si>
-  <si>
-    <t>Рамен на насыщенном сырном бульоне на основе кокосового молока, с добавлением куриной грудинки, яично - пшеничной лапши, мисо-матадоре, ростков зелени, листьев вакамэ</t>
-  </si>
-  <si>
-    <t>Алкогольное меню</t>
-  </si>
-  <si>
-    <t>Алкогольные напитки</t>
-  </si>
-  <si>
-    <t>Красные вина</t>
-  </si>
-  <si>
-    <t>Для романтичного вечера</t>
-  </si>
-  <si>
-    <t>Шемен де Пап ля Ноблесс</t>
-  </si>
-  <si>
-    <t>Вино красное — фруктовое, среднетелое, выдержанное в дубе</t>
-  </si>
-  <si>
-    <t>Рипароссо Монтепульчано</t>
-  </si>
-  <si>
-    <t>Вино красное, сухое</t>
-  </si>
-  <si>
-    <t>Кьянти, Серристори</t>
-  </si>
-  <si>
-    <t>Вино красное — элегантное, комплексное, не выдержанное в дубе</t>
-  </si>
-  <si>
-    <t>Виски</t>
-  </si>
-  <si>
-    <t>Для интересных бесед</t>
-  </si>
-  <si>
-    <t>Джемисон</t>
-  </si>
-  <si>
-    <t>Классический купажированный виски, проходящий 4-хлетнюю выдержку в дубовых бочках</t>
-  </si>
-  <si>
-    <t>Джек Дэниелс</t>
-  </si>
-  <si>
-    <t>Характерен мягкий вкус, сочетает в себе карамельно-ванильные и древесные нотки. Легкий привкус дыма.</t>
-  </si>
-  <si>
-    <t>Чивас Ригал</t>
-  </si>
-  <si>
-    <t>Это купаж высококачественных солодовых и зерновых виски, выдержанных как минимум в течение 12 лет, что придает напитку роскошные нотки меда, ванили и спелых яблок.</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
+      <name val="Arial"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
     </font>
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color indexed="8"/>
       <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <name val="Montserrat"/>
       <b val="1"/>
+      <color indexed="8"/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Montserrat"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -190,50 +77,50 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="ff000000"/>
@@ -1276,329 +1163,448 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" defaultGridColor="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="0"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.8516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="77.6719" style="1" customWidth="1"/>
-    <col min="6" max="7" width="12.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="12.5" style="1" customWidth="1"/>
+    <col width="7.5" customWidth="1" style="1" min="1" max="1"/>
+    <col width="20.8516" customWidth="1" style="1" min="2" max="2"/>
+    <col width="20.1719" customWidth="1" style="1" min="3" max="3"/>
+    <col width="21.6719" customWidth="1" style="1" min="4" max="4"/>
+    <col width="77.67189999999999" customWidth="1" style="1" min="5" max="5"/>
+    <col width="12.5" customWidth="1" style="1" min="6" max="7"/>
+    <col width="12.5" customWidth="1" style="1" min="8" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s" s="3">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="3">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s" s="6">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s" s="8">
+    <row r="1" ht="15.75" customHeight="1" s="11">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>a23c8080-44a7-4cd7-8e91-caf4582ee04f</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Меню</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Основное меню</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="n"/>
+      <c r="E1" s="4" t="n"/>
+      <c r="F1" s="5" t="n"/>
+      <c r="G1" s="5" t="n"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" s="11">
+      <c r="A2" s="5" t="n"/>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>0035f66e-e6e8-45da-b7e6-4beab18627e1</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Холодные закуски</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>К пиву</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="n"/>
+      <c r="F2" s="5" t="n"/>
+      <c r="G2" s="5" t="n"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" s="11">
+      <c r="A3" s="5" t="n"/>
+      <c r="B3" s="5" t="n"/>
+      <c r="C3" s="7" t="inlineStr">
+        <is>
+          <t>727b5c6d-f963-442f-9ac5-7a4550e84918</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Сельдь Бисмарк</t>
+        </is>
+      </c>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>Традиционное немецкое блюдо из маринованной сельди</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>382.99</v>
+      </c>
+      <c r="G3" s="5" t="n"/>
+    </row>
+    <row r="4" ht="16.5" customHeight="1" s="11">
+      <c r="A4" s="5" t="n"/>
+      <c r="B4" s="5" t="n"/>
+      <c r="C4" s="7" t="inlineStr">
+        <is>
+          <t>a7b0179c-aa12-4482-980c-3ad27dcdddd5</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Мясная тарелка</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>Нарезка из ветчины, колбасных колечек, нескольких сортов сыра и фруктов</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>315.36</v>
+      </c>
+      <c r="G4" s="5" t="n"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" s="11">
+      <c r="A5" s="5" t="n"/>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>b0c49636-946a-4e89-a802-aa65b27f900d</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Рыбная тарелка</t>
+        </is>
+      </c>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>Нарезка из креветок, кальмаров, раковых шеек, гребешков, лосося, скумбрии и красной икры</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>565.5700000000001</v>
+      </c>
+      <c r="G5" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="F3" s="2">
-        <v>382.99</v>
-      </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" ht="16.5" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="7">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s" s="6">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s" s="9">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2">
-        <v>315.36</v>
-      </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="7">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2">
-        <v>565.5700000000001</v>
-      </c>
-      <c r="G5" s="2">
+    </row>
+    <row r="6" ht="15.75" customHeight="1" s="11">
+      <c r="A6" s="5" t="n"/>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>a3bce396-e3eb-4a0f-afad-f91f5098fd95</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Рамен</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>Горячий рамен</t>
+        </is>
+      </c>
+      <c r="E6" s="10" t="n"/>
+      <c r="F6" s="5" t="n"/>
+      <c r="G6" s="5" t="n"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" s="11">
+      <c r="A7" s="5" t="n"/>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>c577d641-e21a-4078-960d-f445bc53ef25</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Дайзу рамен</t>
+        </is>
+      </c>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>Рамен на курином бульоне с куриными подушками и яйцом аджитама, яично-пшеничной лапшой, ростки зелени, грибами муэр и зеленым луком</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>366.47</v>
+      </c>
+      <c r="G7" s="5" t="n"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" s="11">
+      <c r="A8" s="5" t="n"/>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>cdafe3ea-5272-4aa7-96c8-d07fd37f6107</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>Унаги рамен</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Рамен на нежном сливочном рыбном бульоне, с добавлением маринованного угря, грибов муэр, кунжута, зеленого лука</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>368.25</v>
+      </c>
+      <c r="G8" s="5" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2">
-        <v>366.47</v>
-      </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2">
-        <v>368.25</v>
-      </c>
-      <c r="G8" s="2">
+    <row r="9" ht="15.75" customHeight="1" s="11">
+      <c r="A9" s="5" t="n"/>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>849d075d-c7c5-4ab5-a480-4eeb0fad3699</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Чиизу Рамен</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>Рамен на насыщенном сырном бульоне на основе кокосового молока, с добавлением куриной грудинки, яично - пшеничной лапши, мисо-матадоре, ростков зелени, листьев вакамэ</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>332.88</v>
+      </c>
+      <c r="G9" s="5" t="n"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" s="11">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>e0b99389-dc05-4cf5-86e5-b9e3661a1cb7</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Алкогольное меню</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Алкогольные напитки</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="n"/>
+      <c r="E10" s="10" t="n"/>
+      <c r="F10" s="5" t="n"/>
+      <c r="G10" s="5" t="n"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="11">
+      <c r="A11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>97b1b993-66ea-41ee-ae5f-904da11c32ea</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Красные вина</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>Для романтичного вечера</t>
+        </is>
+      </c>
+      <c r="E11" s="10" t="n"/>
+      <c r="F11" s="5" t="n"/>
+      <c r="G11" s="5" t="n"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" s="11">
+      <c r="A12" s="5" t="n"/>
+      <c r="B12" s="5" t="n"/>
+      <c r="C12" s="7" t="inlineStr">
+        <is>
+          <t>2e801709-8b02-47c3-b705-c8fed74aea86</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>Шемен де Пап ля Ноблесс</t>
+        </is>
+      </c>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>Вино красное — фруктовое, среднетелое, выдержанное в дубе</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>3700.79</v>
+      </c>
+      <c r="G12" s="5" t="n"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="11">
+      <c r="A13" s="5" t="n"/>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="7" t="inlineStr">
+        <is>
+          <t>927f7e24-c39b-442b-b15f-ce6b3a132c7e</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>Рипароссо Монтепульчано</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>Вино красное, сухое</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>4100.33</v>
+      </c>
+      <c r="G13" s="5" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="2">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s" s="8">
-        <v>17</v>
-      </c>
-      <c r="F9" s="2">
-        <v>332.88</v>
-      </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="F12" s="2">
-        <v>3700.79</v>
-      </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="7">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="F13" s="2">
-        <v>4100.33</v>
-      </c>
-      <c r="G13" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="7">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="F14" s="2">
+    <row r="14" ht="15.75" customHeight="1" s="11">
+      <c r="A14" s="5" t="n"/>
+      <c r="B14" s="5" t="n"/>
+      <c r="C14" s="7" t="inlineStr">
+        <is>
+          <t>2a68c1f1-ca0b-4255-96e9-27ecd06c5d7e</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>Кьянти, Серристори</t>
+        </is>
+      </c>
+      <c r="E14" s="8" t="inlineStr">
+        <is>
+          <t>Вино красное — элегантное, комплексное, не выдержанное в дубе</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="n">
         <v>2850.42</v>
       </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s" s="3">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s" s="6">
-        <v>29</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s" s="6">
-        <v>30</v>
-      </c>
-      <c r="E16" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="G14" s="5" t="n"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" s="11">
+      <c r="A15" s="5" t="n"/>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>ae2db07b-b0d6-4aa1-9702-9bc1ef7bc187</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Виски</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>Для интересных бесед</t>
+        </is>
+      </c>
+      <c r="E15" s="10" t="n"/>
+      <c r="F15" s="5" t="n"/>
+      <c r="G15" s="5" t="n"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" s="11">
+      <c r="A16" s="5" t="n"/>
+      <c r="B16" s="5" t="n"/>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>71008892-2fcd-4384-8fe0-45fb1f356e0d</t>
+        </is>
+      </c>
+      <c r="D16" s="6" t="inlineStr">
+        <is>
+          <t>Джемисон</t>
+        </is>
+      </c>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>Классический купажированный виски, проходящий 4-хлетнюю выдержку в дубовых бочках</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="n">
         <v>520.78</v>
       </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="2">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="E17" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="G16" s="5" t="n"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" s="11">
+      <c r="A17" s="5" t="n"/>
+      <c r="B17" s="5" t="n"/>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>8c25c242-1ca9-43f4-80f0-802b915f7d08</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>Джек Дэниелс</t>
+        </is>
+      </c>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>Характерен мягкий вкус, сочетает в себе карамельно-ванильные и древесные нотки. Легкий привкус дыма.</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="n">
         <v>540.11</v>
       </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="2">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s" s="6">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="G17" s="5" t="n"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" s="11">
+      <c r="A18" s="5" t="n"/>
+      <c r="B18" s="5" t="n"/>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>9dae4b80-ade6-4b1c-8f52-7095dd3f78c9</t>
+        </is>
+      </c>
+      <c r="D18" s="6" t="inlineStr">
+        <is>
+          <t>Чивас Ригал</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>Это купаж высококачественных солодовых и зерновых виски, выдержанных как минимум в течение 12 лет, что придает напитку роскошные нотки меда, ванили и спелых яблок.</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="n">
         <v>720.08</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="5" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="0" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>